--- a/方舟技能映射方案.xlsx
+++ b/方舟技能映射方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="461">
   <si>
     <t>先锋</t>
   </si>
@@ -279,6 +279,9 @@
     <t>玩家选择何时打出此牌，已经包含了手动触发的要素了</t>
   </si>
   <si>
+    <t>衍生牌</t>
+  </si>
+  <si>
     <t>治疗</t>
   </si>
   <si>
@@ -354,40 +357,55 @@
     <t>原型内容</t>
   </si>
   <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>法术伤害6</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>平A</t>
+  </si>
+  <si>
+    <t>杜林</t>
+  </si>
+  <si>
     <t>伤害6</t>
   </si>
   <si>
-    <t>12F</t>
-  </si>
-  <si>
-    <t>平A</t>
-  </si>
-  <si>
-    <t>杜林</t>
-  </si>
-  <si>
     <t>巡林者</t>
   </si>
   <si>
-    <t>格挡3，伤害3</t>
+    <t>+2伤+1格挡</t>
+  </si>
+  <si>
+    <t>格挡2，伤害3</t>
   </si>
   <si>
     <t>夜刀</t>
   </si>
   <si>
-    <t>格挡3，伤害3，消耗</t>
+    <t>格挡2，伤害3，消耗</t>
   </si>
   <si>
     <t>近卫小车</t>
   </si>
   <si>
+    <t>+4</t>
+  </si>
+  <si>
     <t>格挡恢复8，消耗</t>
   </si>
   <si>
     <t>医疗小车</t>
   </si>
   <si>
-    <t>炸弹power，消耗</t>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>10伤2回合炸弹power，消耗</t>
   </si>
   <si>
     <t>自爆小车</t>
@@ -399,6 +417,9 @@
     <t>黑角</t>
   </si>
   <si>
+    <t>+6</t>
+  </si>
+  <si>
     <t>伤害12</t>
   </si>
   <si>
@@ -408,19 +429,25 @@
     <t>1技能</t>
   </si>
   <si>
-    <t>随机伤害D，M次，结束你的回合。</t>
+    <t>4伤8次</t>
+  </si>
+  <si>
+    <t>随机伤害3，6次，结束你的回合。</t>
   </si>
   <si>
     <t>2技能</t>
   </si>
   <si>
-    <t>获得3层力量。造成6点伤害5次。在下回合死亡。消耗 。</t>
-  </si>
-  <si>
-    <t>3技能</t>
-  </si>
-  <si>
-    <t>3伤害，开局获得3技力</t>
+    <t>13伤6层</t>
+  </si>
+  <si>
+    <t>获得4层魔法增幅。造成10点伤害3次。在下回合死亡。消耗 。</t>
+  </si>
+  <si>
+    <t>攻击力+100%，生命上限+25%，攻击范围扩大，伤害类型变为真实技能结束后阿米娅强制退出战场</t>
+  </si>
+  <si>
+    <t>6伤害，开局获得3技力</t>
   </si>
   <si>
     <t>回1费</t>
@@ -435,433 +462,499 @@
     <t>芬</t>
   </si>
   <si>
+    <t>6伤害，击杀回费</t>
+  </si>
+  <si>
+    <t>翎羽</t>
+  </si>
+  <si>
+    <t>6伤害，3格挡</t>
+  </si>
+  <si>
+    <t>临时6伤害值</t>
+  </si>
+  <si>
+    <t>玫兰莎</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>8群伤，3格挡</t>
+  </si>
+  <si>
+    <t>临时4伤害值</t>
+  </si>
+  <si>
+    <t>泡普卡</t>
+  </si>
+  <si>
+    <t>8近卫连击伤害，3格挡</t>
+  </si>
+  <si>
+    <t>月见夜</t>
+  </si>
+  <si>
+    <t>8伤害</t>
+  </si>
+  <si>
+    <t>安德切尔</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>克洛斯</t>
+  </si>
+  <si>
+    <t>10溅射伤害</t>
+  </si>
+  <si>
+    <t>空爆</t>
+  </si>
+  <si>
+    <t>15格挡</t>
+  </si>
+  <si>
+    <t>10格挡恢复</t>
+  </si>
+  <si>
+    <t>斑点</t>
+  </si>
+  <si>
+    <t>卡缇</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>20格挡</t>
+  </si>
+  <si>
+    <t>米格鲁</t>
+  </si>
+  <si>
+    <t>安塞尔</t>
+  </si>
+  <si>
+    <t>芙蓉</t>
+  </si>
+  <si>
+    <t>6法伤，debuff</t>
+  </si>
+  <si>
+    <t>梓兰</t>
+  </si>
+  <si>
+    <t>12法伤</t>
+  </si>
+  <si>
+    <t>史都华德</t>
+  </si>
+  <si>
+    <t>10群伤</t>
+  </si>
+  <si>
+    <t>炎熔</t>
+  </si>
+  <si>
+    <t>8点伤害, 将1张 磐蟹打击 加入手牌。</t>
+  </si>
+  <si>
+    <t>回费</t>
+  </si>
+  <si>
+    <t>豆苗</t>
+  </si>
+  <si>
+    <t>四星特色技能</t>
+  </si>
+  <si>
+    <t>衍生</t>
+  </si>
+  <si>
+    <t>磐蟹</t>
+  </si>
+  <si>
+    <t>8伤害，击杀回费</t>
+  </si>
+  <si>
+    <t>红豆</t>
+  </si>
+  <si>
+    <t>槌音:攻击间隔略微增大(+0.5)，攻击力+90%</t>
+  </si>
+  <si>
+    <t>+4+2</t>
+  </si>
+  <si>
+    <t>8伤害，开局获得技力，本回合出牌数少于4时增伤4</t>
+  </si>
+  <si>
+    <t>清道夫</t>
+  </si>
+  <si>
+    <t>单独行动者 :当周围四格内没有其他友方单位时，攻击力和防御力各+5%</t>
+  </si>
+  <si>
+    <t>6伤害，开局获得技力</t>
+  </si>
+  <si>
+    <t>回2费，转为格挡恢复6</t>
+  </si>
+  <si>
+    <t>桃金娘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治愈之翼： 停止攻击，持续时间内回复总共16点部署费用，并每秒治疗周围一名友方单位相当于桃金娘攻击力25%的生命 </t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>6格挡，开局获得技力</t>
+  </si>
+  <si>
+    <t>回费，临时3格挡</t>
+  </si>
+  <si>
+    <t>讯使</t>
+  </si>
+  <si>
+    <t>冲锋号令·防御</t>
+  </si>
+  <si>
+    <t>艾丝黛尔</t>
+  </si>
+  <si>
+    <t>+4伤+2格挡</t>
+  </si>
+  <si>
+    <t>10近卫连击伤害，5格挡</t>
+  </si>
+  <si>
+    <t>脆弱2代价，临时6伤害值</t>
+  </si>
+  <si>
+    <t>缠丸</t>
+  </si>
+  <si>
+    <t>恶鬼之力：防御力降至0，攻击力+75%</t>
+  </si>
+  <si>
+    <t>增强白卡buff</t>
+  </si>
+  <si>
+    <t>杜宾</t>
+  </si>
+  <si>
+    <t>有50%的几率失败，失败时结束你的回合。成功时对所有敌人造成 !D! 点伤害。如果目标不是boss，移除它身上的一个增益效果。</t>
+  </si>
+  <si>
+    <t>断罪者</t>
+  </si>
+  <si>
+    <t>额外一次</t>
+  </si>
+  <si>
+    <t>芳汀</t>
+  </si>
+  <si>
+    <t>致命恶作剧：攻击范围扩大，远程攻击不再降低攻击力，攻击造成相当于攻击力110%的法术伤害，额外攻击一名目标</t>
+  </si>
+  <si>
+    <t>临时敏捷，代价本回合无法攻击，反击屏障</t>
+  </si>
+  <si>
+    <t>杰克</t>
+  </si>
+  <si>
+    <t>全神贯注！：停止攻击敌人。额外获得物理闪避40%。闪避成功后立即对一名敌人进行反击，造成相当于攻击力120%的物理伤害。(反击频率不小于100%的攻击间隔)</t>
+  </si>
+  <si>
+    <t>多次弹跳连击，对空增伤，格挡</t>
+  </si>
+  <si>
+    <t>刻刀</t>
+  </si>
+  <si>
+    <t>绯红刺刀：对周围最多5个敌人造成相当于攻击力300%的物理伤害。对飞行单位的攻击力系数加倍</t>
+  </si>
+  <si>
+    <t>伤害，格挡，临时敏捷</t>
+  </si>
+  <si>
+    <t>猎蜂</t>
+  </si>
+  <si>
+    <t>高机动 ：获得20%的物理闪避</t>
+  </si>
+  <si>
+    <t>额外多次伤害</t>
+  </si>
+  <si>
+    <t>急速拳：攻击间隔减小(-51%)</t>
+  </si>
+  <si>
+    <t>临时伤害值，减攻debuff</t>
+  </si>
+  <si>
+    <t>慕斯</t>
+  </si>
+  <si>
+    <t>挠伤：下次攻击时攻击力+30%，5秒内使击中目标攻击力-15%</t>
+  </si>
+  <si>
+    <t>临时伤害值，减速debuff</t>
+  </si>
+  <si>
+    <t>霜叶</t>
+  </si>
+  <si>
+    <t>寒霜枪刃:下次攻击造成攻击力105%的物理伤害，令命中目标在1.5秒内移动速度-20%</t>
+  </si>
+  <si>
+    <t>造成 !D! 点伤害。 这张牌被打出 !M! 次后，在本场战斗中其基础伤害减少 !2ndM! 。获得 !B! 点 格挡 。</t>
+  </si>
+  <si>
+    <t>宴</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>安比尔</t>
+  </si>
+  <si>
+    <t>雷达定位：攻击力+40%，攻击范围扩大至整个战场，但攻击间隔略微增大(+0.9)，且在攻击超出原本攻击范围的敌方单位时攻击前摇增大</t>
+  </si>
+  <si>
+    <t>溅射伤害，</t>
+  </si>
+  <si>
+    <t>减速debuff</t>
+  </si>
+  <si>
+    <t>白雪</t>
+  </si>
+  <si>
+    <t>凝武：攻击变为投掷回旋的大飞镖，短时间内使命中目标的移动速度降低22%，并每秒受到相当于攻击力50%的法术伤害</t>
+  </si>
+  <si>
+    <t>弹跳伤害</t>
+  </si>
+  <si>
+    <t>红云</t>
+  </si>
+  <si>
+    <t>双弦开弓：攻击力+10%，每次攻击额外攻击1个目标</t>
+  </si>
+  <si>
+    <t>伤害，</t>
+  </si>
+  <si>
+    <t>临时敏捷buff</t>
+  </si>
+  <si>
+    <t>杰西卡</t>
+  </si>
+  <si>
+    <t>掩护烟幕：攻击力+20%，获得75%的物理和法术闪避</t>
+  </si>
+  <si>
+    <t>移除格挡action</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>碎甲击·扩散：立即对攻击范围内至多5个敌人造成相当于攻击力140%的物理伤害，5秒内使命中目标的防御力-25%</t>
+  </si>
+  <si>
+    <t>眩晕debuff</t>
+  </si>
+  <si>
+    <t>梅</t>
+  </si>
+  <si>
+    <t>麻痹弹：下次攻击的攻击力提高至135%，并使目标停顿1.5秒</t>
+  </si>
+  <si>
+    <t>松果</t>
+  </si>
+  <si>
+    <t>能力：发条鞋</t>
+  </si>
+  <si>
+    <t>酸糖</t>
+  </si>
+  <si>
+    <t>滑射技巧：每次攻击至少造成20%攻击力的伤害（当敌人在正前方两格时提升至30%）</t>
+  </si>
+  <si>
+    <t>格挡，</t>
+  </si>
+  <si>
+    <t>格挡恢复，代价本回合无法攻击</t>
+  </si>
+  <si>
+    <t>古米</t>
+  </si>
+  <si>
+    <t>食粮烹制：开始烹饪，10秒内停止攻击敌人，防御力+50%。烹饪完成后专注于治疗附近的友方角色，攻击力+30%</t>
+  </si>
+  <si>
+    <t>格挡，伤害</t>
+  </si>
+  <si>
+    <t>坚雷</t>
+  </si>
+  <si>
+    <t>起盾回击：攻击力+20%，同时攻击阻挡的所有敌人</t>
+  </si>
+  <si>
+    <t>格挡，人工制品buff，消耗</t>
+  </si>
+  <si>
+    <t>角峰</t>
+  </si>
+  <si>
+    <t>抗寒体质：生命上限+20%，防御力+10%，法术抗性+50%</t>
+  </si>
+  <si>
+    <t>代价本回合无法攻击，临时势不可当</t>
+  </si>
+  <si>
+    <t>泡泡</t>
+  </si>
+  <si>
+    <t>挨打：停止攻击敌人；防御力+45%，自身更易受敌人攻击，每次受到攻击时对目标造成相当于泡泡防御力30%的物理伤害</t>
+  </si>
+  <si>
+    <t>格挡，代价本回合无法攻击</t>
+  </si>
+  <si>
+    <t>大量格挡，代价本回合无法攻击</t>
+  </si>
+  <si>
+    <t>蛇屠箱</t>
+  </si>
+  <si>
+    <t>面板</t>
+  </si>
+  <si>
+    <t>每回合格挡恢复</t>
+  </si>
+  <si>
+    <t>调香师</t>
+  </si>
+  <si>
+    <t>天赋</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>嘉维尔</t>
+  </si>
+  <si>
+    <t>格挡恢复，保留</t>
+  </si>
+  <si>
+    <t>末药</t>
+  </si>
+  <si>
+    <t>急救包：部署后立刻恢复全体友方单位的生命值，恢复量为末药攻击力的100%</t>
+  </si>
+  <si>
+    <t>清流</t>
+  </si>
+  <si>
+    <t>格挡恢复，计数削弱</t>
+  </si>
+  <si>
+    <t>苏苏洛</t>
+  </si>
+  <si>
+    <t>深度治疗：攻击力+40%，攻击速度+40。同一次作战中最多使用2次</t>
+  </si>
+  <si>
+    <t>体力流失，减速debuff</t>
+  </si>
+  <si>
+    <t>波登可</t>
+  </si>
+  <si>
+    <t>全体减速debuff</t>
+  </si>
+  <si>
+    <t>地灵</t>
+  </si>
+  <si>
+    <t>召唤</t>
+  </si>
+  <si>
+    <t>深海色</t>
+  </si>
+  <si>
+    <t>体力流失群伤，全体减速debuff</t>
+  </si>
+  <si>
+    <t>格雷伊</t>
+  </si>
+  <si>
+    <t>卡达</t>
+  </si>
+  <si>
+    <t>体力流失伤害，临时法术易伤debuff</t>
+  </si>
+  <si>
+    <t>夜烟</t>
+  </si>
+  <si>
+    <t>群伤，结束你的回合。</t>
+  </si>
+  <si>
+    <t>远山</t>
+  </si>
+  <si>
+    <t>阿消</t>
+  </si>
+  <si>
+    <t>暗锁</t>
+  </si>
+  <si>
+    <t>伤害，格挡恢复，虚无</t>
+  </si>
+  <si>
+    <t>孑</t>
+  </si>
+  <si>
+    <t>防御，丢弃特效</t>
+  </si>
+  <si>
+    <t>砾</t>
+  </si>
+  <si>
+    <t>伤害，临时减速debuff</t>
+  </si>
+  <si>
+    <t>伊桑</t>
+  </si>
+  <si>
+    <t>伤害，开局获得技力</t>
+  </si>
+  <si>
+    <t>群伤，回费，全体眩晕</t>
+  </si>
+  <si>
+    <t>德克萨斯-剑雨</t>
+  </si>
+  <si>
+    <t>剑雨：</t>
+  </si>
+  <si>
     <t>伤害，击杀回费</t>
-  </si>
-  <si>
-    <t>翎羽</t>
-  </si>
-  <si>
-    <t>临时伤害值</t>
-  </si>
-  <si>
-    <t>玫兰莎</t>
-  </si>
-  <si>
-    <t>伤害，群伤，格挡</t>
-  </si>
-  <si>
-    <t>泡普卡</t>
-  </si>
-  <si>
-    <t>月见夜</t>
-  </si>
-  <si>
-    <t>安德切尔</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>克洛斯</t>
-  </si>
-  <si>
-    <t>空爆</t>
-  </si>
-  <si>
-    <t>斑点</t>
-  </si>
-  <si>
-    <t>卡缇</t>
-  </si>
-  <si>
-    <t>米格鲁</t>
-  </si>
-  <si>
-    <t>安塞尔</t>
-  </si>
-  <si>
-    <t>芙蓉</t>
-  </si>
-  <si>
-    <t>伤害，debuff</t>
-  </si>
-  <si>
-    <t>梓兰</t>
-  </si>
-  <si>
-    <t>史都华德</t>
-  </si>
-  <si>
-    <t>群伤</t>
-  </si>
-  <si>
-    <t>炎熔</t>
-  </si>
-  <si>
-    <t>衍生牌</t>
-  </si>
-  <si>
-    <t>更多衍生牌，回费</t>
-  </si>
-  <si>
-    <t>豆苗</t>
-  </si>
-  <si>
-    <t>四星特色技能</t>
-  </si>
-  <si>
-    <t>红豆</t>
-  </si>
-  <si>
-    <t>伤害，开局获得技力，本回合出牌数少于M时增伤</t>
-  </si>
-  <si>
-    <t>回费</t>
-  </si>
-  <si>
-    <t>清道夫</t>
-  </si>
-  <si>
-    <t>照搬模板</t>
-  </si>
-  <si>
-    <t>伤害，开局获得技力</t>
-  </si>
-  <si>
-    <t>回费，转为格挡恢复</t>
-  </si>
-  <si>
-    <t>桃金娘</t>
-  </si>
-  <si>
-    <t>格挡，开局获得技力</t>
-  </si>
-  <si>
-    <t>回费，临时格挡</t>
-  </si>
-  <si>
-    <t>讯使</t>
-  </si>
-  <si>
-    <t>艾丝黛尔</t>
-  </si>
-  <si>
-    <t>脆弱代价，临时伤害值</t>
-  </si>
-  <si>
-    <t>缠丸</t>
-  </si>
-  <si>
-    <t>恶鬼之力：防御力降至0，攻击力+75%</t>
-  </si>
-  <si>
-    <t>增强白卡buff</t>
-  </si>
-  <si>
-    <t>杜宾</t>
-  </si>
-  <si>
-    <t>有50%的几率失败，失败时结束你的回合。成功时对所有敌人造成 !D! 点伤害。如果目标不是boss，移除它身上的一个增益效果。</t>
-  </si>
-  <si>
-    <t>断罪者</t>
-  </si>
-  <si>
-    <t>额外一次</t>
-  </si>
-  <si>
-    <t>芳汀</t>
-  </si>
-  <si>
-    <t>致命恶作剧：攻击范围扩大，远程攻击不再降低攻击力，攻击造成相当于攻击力110%的法术伤害，额外攻击一名目标</t>
-  </si>
-  <si>
-    <t>临时敏捷，代价本回合无法攻击，反击屏障</t>
-  </si>
-  <si>
-    <t>杰克</t>
-  </si>
-  <si>
-    <t>全神贯注！：停止攻击敌人。额外获得物理闪避40%。闪避成功后立即对一名敌人进行反击，造成相当于攻击力120%的物理伤害。(反击频率不小于100%的攻击间隔)</t>
-  </si>
-  <si>
-    <t>多次弹跳连击，对空增伤，格挡</t>
-  </si>
-  <si>
-    <t>刻刀</t>
-  </si>
-  <si>
-    <t>绯红刺刀：对周围最多5个敌人造成相当于攻击力300%的物理伤害。对飞行单位的攻击力系数加倍</t>
-  </si>
-  <si>
-    <t>伤害，格挡，临时敏捷</t>
-  </si>
-  <si>
-    <t>猎蜂</t>
-  </si>
-  <si>
-    <t>高机动 ：获得20%的物理闪避</t>
-  </si>
-  <si>
-    <t>额外多次伤害</t>
-  </si>
-  <si>
-    <t>急速拳：攻击间隔减小(-51%)</t>
-  </si>
-  <si>
-    <t>临时伤害值，减攻debuff</t>
-  </si>
-  <si>
-    <t>慕斯</t>
-  </si>
-  <si>
-    <t>挠伤：下次攻击时攻击力+30%，5秒内使击中目标攻击力-15%</t>
-  </si>
-  <si>
-    <t>临时伤害值，减速debuff</t>
-  </si>
-  <si>
-    <t>霜叶</t>
-  </si>
-  <si>
-    <t>寒霜枪刃:下次攻击造成攻击力105%的物理伤害，令命中目标在1.5秒内移动速度-20%</t>
-  </si>
-  <si>
-    <t>造成 !D! 点伤害。 这张牌被打出 !M! 次后，在本场战斗中其基础伤害减少 !2ndM! 。获得 !B! 点 格挡 。</t>
-  </si>
-  <si>
-    <t>宴</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>安比尔</t>
-  </si>
-  <si>
-    <t>雷达定位：攻击力+40%，攻击范围扩大至整个战场，但攻击间隔略微增大(+0.9)，且在攻击超出原本攻击范围的敌方单位时攻击前摇增大</t>
-  </si>
-  <si>
-    <t>溅射伤害，</t>
-  </si>
-  <si>
-    <t>减速debuff</t>
-  </si>
-  <si>
-    <t>白雪</t>
-  </si>
-  <si>
-    <t>凝武：攻击变为投掷回旋的大飞镖，短时间内使命中目标的移动速度降低22%，并每秒受到相当于攻击力50%的法术伤害</t>
-  </si>
-  <si>
-    <t>弹跳伤害</t>
-  </si>
-  <si>
-    <t>红云</t>
-  </si>
-  <si>
-    <t>双弦开弓：攻击力+10%，每次攻击额外攻击1个目标</t>
-  </si>
-  <si>
-    <t>伤害，</t>
-  </si>
-  <si>
-    <t>临时敏捷buff</t>
-  </si>
-  <si>
-    <t>杰西卡</t>
-  </si>
-  <si>
-    <t>掩护烟幕：攻击力+20%，获得75%的物理和法术闪避</t>
-  </si>
-  <si>
-    <t>移除格挡action</t>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>碎甲击·扩散：立即对攻击范围内至多5个敌人造成相当于攻击力140%的物理伤害，5秒内使命中目标的防御力-25%</t>
-  </si>
-  <si>
-    <t>眩晕debuff</t>
-  </si>
-  <si>
-    <t>梅</t>
-  </si>
-  <si>
-    <t>麻痹弹：下次攻击的攻击力提高至135%，并使目标停顿1.5秒</t>
-  </si>
-  <si>
-    <t>松果</t>
-  </si>
-  <si>
-    <t>能力：发条鞋</t>
-  </si>
-  <si>
-    <t>酸糖</t>
-  </si>
-  <si>
-    <t>滑射技巧：每次攻击至少造成20%攻击力的伤害（当敌人在正前方两格时提升至30%）</t>
-  </si>
-  <si>
-    <t>格挡，</t>
-  </si>
-  <si>
-    <t>格挡恢复，代价本回合无法攻击</t>
-  </si>
-  <si>
-    <t>古米</t>
-  </si>
-  <si>
-    <t>食粮烹制：开始烹饪，10秒内停止攻击敌人，防御力+50%。烹饪完成后专注于治疗附近的友方角色，攻击力+30%</t>
-  </si>
-  <si>
-    <t>格挡，伤害</t>
-  </si>
-  <si>
-    <t>坚雷</t>
-  </si>
-  <si>
-    <t>起盾回击：攻击力+20%，同时攻击阻挡的所有敌人</t>
-  </si>
-  <si>
-    <t>格挡，人工制品buff，消耗</t>
-  </si>
-  <si>
-    <t>角峰</t>
-  </si>
-  <si>
-    <t>抗寒体质：生命上限+20%，防御力+10%，法术抗性+50%</t>
-  </si>
-  <si>
-    <t>代价本回合无法攻击，临时势不可当</t>
-  </si>
-  <si>
-    <t>泡泡</t>
-  </si>
-  <si>
-    <t>挨打：停止攻击敌人；防御力+45%，自身更易受敌人攻击，每次受到攻击时对目标造成相当于泡泡防御力30%的物理伤害</t>
-  </si>
-  <si>
-    <t>格挡，代价本回合无法攻击</t>
-  </si>
-  <si>
-    <t>大量格挡，代价本回合无法攻击</t>
-  </si>
-  <si>
-    <t>蛇屠箱</t>
-  </si>
-  <si>
-    <t>面板</t>
-  </si>
-  <si>
-    <t>每回合格挡恢复</t>
-  </si>
-  <si>
-    <t>调香师</t>
-  </si>
-  <si>
-    <t>天赋</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>嘉维尔</t>
-  </si>
-  <si>
-    <t>格挡恢复，保留</t>
-  </si>
-  <si>
-    <t>末药</t>
-  </si>
-  <si>
-    <t>急救包：部署后立刻恢复全体友方单位的生命值，恢复量为末药攻击力的100%</t>
-  </si>
-  <si>
-    <t>清流</t>
-  </si>
-  <si>
-    <t>格挡恢复，计数削弱</t>
-  </si>
-  <si>
-    <t>苏苏洛</t>
-  </si>
-  <si>
-    <t>深度治疗：攻击力+40%，攻击速度+40。同一次作战中最多使用2次</t>
-  </si>
-  <si>
-    <t>体力流失，减速debuff</t>
-  </si>
-  <si>
-    <t>波登可</t>
-  </si>
-  <si>
-    <t>全体减速debuff</t>
-  </si>
-  <si>
-    <t>地灵</t>
-  </si>
-  <si>
-    <t>召唤</t>
-  </si>
-  <si>
-    <t>深海色</t>
-  </si>
-  <si>
-    <t>体力流失群伤，全体减速debuff</t>
-  </si>
-  <si>
-    <t>格雷伊</t>
-  </si>
-  <si>
-    <t>卡达</t>
-  </si>
-  <si>
-    <t>体力流失伤害，临时法术易伤debuff</t>
-  </si>
-  <si>
-    <t>夜烟</t>
-  </si>
-  <si>
-    <t>群伤，结束你的回合。</t>
-  </si>
-  <si>
-    <t>远山</t>
-  </si>
-  <si>
-    <t>阿消</t>
-  </si>
-  <si>
-    <t>暗锁</t>
-  </si>
-  <si>
-    <t>伤害，格挡恢复，虚无</t>
-  </si>
-  <si>
-    <t>孑</t>
-  </si>
-  <si>
-    <t>防御，丢弃特效</t>
-  </si>
-  <si>
-    <t>砾</t>
-  </si>
-  <si>
-    <t>伤害，临时减速debuff</t>
-  </si>
-  <si>
-    <t>伊桑</t>
-  </si>
-  <si>
-    <t>群伤，回费，全体眩晕</t>
-  </si>
-  <si>
-    <t>德克萨斯-剑雨</t>
-  </si>
-  <si>
-    <t>剑雨：</t>
   </si>
   <si>
     <t>格挡，伤害值上升</t>
@@ -1315,10 +1408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1336,24 +1429,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,16 +1451,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,7 +1474,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1410,7 +1487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1419,10 +1495,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1434,16 +1510,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,7 +1535,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1466,9 +1543,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1524,7 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1629,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,13 +1677,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,145 +1797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,9 +1828,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,17 +1863,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1786,32 +1885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1830,6 +1905,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1838,10 +1931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1850,137 +1943,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1988,6 +2081,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -2024,6 +2120,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2348,7 +2453,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2391,10 +2496,10 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -2403,15 +2508,15 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="S2" t="s">
         <v>15</v>
       </c>
@@ -2423,24 +2528,24 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="11">
-        <f>COUNTIF(方舟技能映射方案!A$2:A$1048563,K3)</f>
+      <c r="L3" s="12">
+        <f>COUNTIF(方舟技能映射方案!A$2:A$1048564,K3)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="S3" t="s">
         <v>21</v>
       </c>
@@ -2461,15 +2566,15 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="12">
-        <f>COUNTIF(方舟技能映射方案!A$2:A$1048563,K4)</f>
+      <c r="L4" s="13">
+        <f>COUNTIF(方舟技能映射方案!A$2:A$1048564,K4)</f>
         <v>17</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4">
         <v>20</v>
       </c>
@@ -2496,15 +2601,15 @@
       <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="13">
-        <f>COUNTIF(方舟技能映射方案!A$2:A$1048563,K5)</f>
+      <c r="L5" s="14">
+        <f>COUNTIF(方舟技能映射方案!A$2:A$1048564,K5)</f>
         <v>47</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5">
         <v>35</v>
       </c>
@@ -2528,15 +2633,15 @@
       <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="14">
-        <f>COUNTIF(方舟技能映射方案!A$2:A$1048563,K6)</f>
+      <c r="L6" s="15">
+        <f>COUNTIF(方舟技能映射方案!A$2:A$1048564,K6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6">
         <v>20</v>
       </c>
@@ -2557,15 +2662,15 @@
       <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="14">
-        <f>COUNTIF(方舟技能映射方案!A$2:A$1048563,K7)</f>
+      <c r="L7" s="15">
+        <f>COUNTIF(方舟技能映射方案!A$2:A$1048564,K7)</f>
         <v>5</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -2583,10 +2688,10 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2597,11 +2702,11 @@
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="e">
-        <f>SUM(方舟技能映射方案!E$2:E$1048563)</f>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="e">
+        <f>SUM(方舟技能映射方案!E$2:E$1048564)</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2724,7 +2829,7 @@
       <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
       <c r="G18" t="s">
         <v>85</v>
       </c>
@@ -2732,15 +2837,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="7:8">
@@ -2748,42 +2861,42 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2798,10 +2911,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2811,7 +2924,7 @@
     <col min="5" max="5" width="14.0166666666667" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
+    <col min="8" max="8" width="45.875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
@@ -2823,217 +2936,244 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="B2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>IF(COUNTIF(H2,"*伤*")&gt;0,1,0)+IF(COUNTIF(H2,"*格挡*")&gt;0,-1,0)</f>
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E21" si="0">IF(COUNTIF(H3,"*伤*")&gt;0,1,0)+IF(COUNTIF(H3,"*格挡*")&gt;0,-1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
         <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B10" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
@@ -3042,19 +3182,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
@@ -3063,41 +3206,50 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:13">
-      <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>133</v>
+      <c r="H12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="B13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3109,10 +3261,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J13" t="str">
         <f>VLOOKUP(K13,模板!A:B,2,FALSE)</f>
@@ -3122,46 +3274,55 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:13">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="4" t="str">
         <f>VLOOKUP(F14,模板!G:H,2,FALSE)</f>
         <v>平时小收益，触发大收益</v>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="J14" s="4" t="str">
         <f>VLOOKUP(K14,模板!A:B,2,FALSE)</f>
         <v>伤害，回费，开局特效</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>137</v>
+      <c r="L14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4">
+      <c r="B15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3173,7 +3334,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="J15" t="str">
         <f>VLOOKUP(K15,模板!A:B,2,FALSE)</f>
@@ -3183,21 +3344,30 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4">
+      <c r="B16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G16" t="str">
@@ -3205,10 +3375,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J16" t="str">
         <f>VLOOKUP(K16,模板!A:B,2,FALSE)</f>
@@ -3218,21 +3388,30 @@
         <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4">
+      <c r="B17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G17" t="str">
@@ -3240,10 +3419,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J17" t="str">
         <f>VLOOKUP(K17,模板!A:B,2,FALSE)</f>
@@ -3253,53 +3432,68 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:13">
-      <c r="A18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:13">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="4">
+      <c r="B18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="G18" s="5" t="str">
         <f>VLOOKUP(F18,模板!G:H,2,FALSE)</f>
         <v>固定中收益</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="4" t="str">
+      <c r="H18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="5" t="str">
         <f>VLOOKUP(K18,模板!A:B,2,FALSE)</f>
         <v>80100连击伤害，格挡</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>137</v>
+      <c r="L18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="4">
+      <c r="B19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G19" t="str">
@@ -3307,10 +3501,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP(K19,模板!A:B,2,FALSE)</f>
@@ -3320,17 +3514,23 @@
         <v>42</v>
       </c>
       <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s">
         <v>146</v>
-      </c>
-      <c r="M19" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="4">
+      <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3342,10 +3542,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP(K20,模板!A:B,2,FALSE)</f>
@@ -3355,17 +3555,23 @@
         <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="4">
+      <c r="B21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3377,7 +3583,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP(K21,模板!A:B,2,FALSE)</f>
@@ -3387,21 +3593,30 @@
         <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="4">
+      <c r="B22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" ref="E22:E37" si="1">IF(COUNTIF(H22,"*伤*")&gt;0,1,0)+IF(COUNTIF(H22,"*格挡*")&gt;0,-1,0)</f>
         <v>-1</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G22" t="str">
@@ -3409,10 +3624,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="J22" t="str">
         <f>VLOOKUP(K22,模板!A:B,2,FALSE)</f>
@@ -3422,49 +3637,55 @@
         <v>57</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:13">
-      <c r="A23" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:13">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="4" t="str">
         <f>VLOOKUP(F23,模板!G:H,2,FALSE)</f>
         <v>固定中收益</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="J23" s="4" t="str">
         <f>VLOOKUP(K23,模板!A:B,2,FALSE)</f>
         <v>格挡</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>137</v>
+      <c r="L23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="4">
+      <c r="B24" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -3476,7 +3697,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP(K24,模板!A:B,2,FALSE)</f>
@@ -3486,17 +3707,23 @@
         <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="4">
+      <c r="B25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -3508,7 +3735,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP(K25,模板!A:B,2,FALSE)</f>
@@ -3518,49 +3745,55 @@
         <v>63</v>
       </c>
       <c r="L25" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:13">
-      <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:13">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" s="4" t="str">
         <f>VLOOKUP(F26,模板!G:H,2,FALSE)</f>
         <v>固定中收益</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" s="4" t="str">
         <f>VLOOKUP(K26,模板!A:B,2,FALSE)</f>
         <v>格挡恢复</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>137</v>
+      <c r="L26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="4">
+      <c r="B27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3572,7 +3805,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J27" t="str">
         <f>VLOOKUP(K27,模板!A:B,2,FALSE)</f>
@@ -3582,17 +3815,23 @@
         <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="4">
+      <c r="B28" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3604,7 +3843,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP(K28,模板!A:B,2,FALSE)</f>
@@ -3614,17 +3853,23 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="4">
+      <c r="B29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3636,7 +3881,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J29" t="str">
         <f>VLOOKUP(K29,模板!A:B,2,FALSE)</f>
@@ -3646,19 +3891,25 @@
         <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="4">
+      <c r="B30" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>78</v>
@@ -3668,10 +3919,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP(K30,模板!A:B,2,FALSE)</f>
@@ -3681,67 +3932,80 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f>IF(COUNTIF(H31,"*伤*")&gt;0,1,0)+IF(COUNTIF(H31,"*格挡*")&gt;0,-1,0)</f>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(F31,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" t="s">
-        <v>141</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I31"/>
       <c r="J31" t="str">
         <f>VLOOKUP(K31,模板!A:B,2,FALSE)</f>
-        <v>伤害，回费，开局特效</v>
+        <v>无模板</v>
       </c>
       <c r="K31" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="4">
-        <f t="shared" ref="E32:E43" si="2">IF(COUNTIF(H32,"*伤*")&gt;0,1,0)+IF(COUNTIF(H32,"*格挡*")&gt;0,-1,0)</f>
+      <c r="B32" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" s="5">
+        <f>IF(COUNTIF(H32,"*伤*")&gt;0,1,0)+IF(COUNTIF(H32,"*格挡*")&gt;0,-1,0)</f>
+        <v>1</v>
+      </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(F32,模板!G:H,2,FALSE)</f>
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP(K32,模板!A:B,2,FALSE)</f>
@@ -3751,18 +4015,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M32" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="2"/>
+      <c r="B33" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:E44" si="2">IF(COUNTIF(H33,"*伤*")&gt;0,1,0)+IF(COUNTIF(H33,"*格挡*")&gt;0,-1,0)</f>
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -3773,10 +4044,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H33" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP(K33,模板!A:B,2,FALSE)</f>
@@ -3786,19 +4057,28 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="4">
+      <c r="B34" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>78</v>
@@ -3808,10 +4088,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H34" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J34" t="str">
         <f>VLOOKUP(K34,模板!A:B,2,FALSE)</f>
@@ -3821,103 +4101,130 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="4">
+      <c r="B35" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,模板!G:H,2,FALSE)</f>
+        <v>平时小收益，触发大收益</v>
+      </c>
+      <c r="H35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP(K35,模板!A:B,2,FALSE)</f>
+        <v>伤害，回费，开局特效</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" t="e">
-        <f>VLOOKUP(F35,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f>VLOOKUP(K35,模板!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="G36" s="4" t="e">
         <f>VLOOKUP(F36,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
-      </c>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" t="s">
-        <v>176</v>
-      </c>
-      <c r="J36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="4" t="e">
         <f>VLOOKUP(K36,模板!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L36" t="s">
-        <v>177</v>
-      </c>
-      <c r="M36" t="s">
-        <v>178</v>
+      <c r="L36" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="4">
+      <c r="B37" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(F37,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H37" t="s">
-        <v>179</v>
+        <v>204</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP(K37,模板!A:B,2,FALSE)</f>
-        <v>无模板</v>
+        <v>伤害，格挡</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="4">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
@@ -3927,94 +4234,103 @@
         <v>固定中收益</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="J38" t="str">
         <f>VLOOKUP(K38,模板!A:B,2,FALSE)</f>
-        <v>伤害，格挡</v>
+        <v>无模板</v>
       </c>
       <c r="K38" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="M38" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="4">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(F39,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J39" t="str">
         <f>VLOOKUP(K39,模板!A:B,2,FALSE)</f>
-        <v>80100连击伤害，格挡</v>
+        <v>伤害，格挡</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="4">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(F40,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H40" t="s">
-        <v>186</v>
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>212</v>
       </c>
       <c r="J40" t="str">
         <f>VLOOKUP(K40,模板!A:B,2,FALSE)</f>
-        <v>无模板</v>
+        <v>80100连击伤害，格挡</v>
       </c>
       <c r="K40" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="4">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4026,58 +4342,64 @@
         <v>固定中收益</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="J41" t="str">
         <f>VLOOKUP(K41,模板!A:B,2,FALSE)</f>
-        <v>80100连击伤害，格挡</v>
+        <v>无模板</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:13">
-      <c r="A42" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="2" t="str">
+      <c r="G42" t="str">
         <f>VLOOKUP(F42,模板!G:H,2,FALSE)</f>
         <v>固定中收益</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J42" s="2" t="str">
+      <c r="H42" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" t="str">
         <f>VLOOKUP(K42,模板!A:B,2,FALSE)</f>
-        <v>伤害，格挡</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>194</v>
+        <v>80100连击伤害，格挡</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4090,10 +4412,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>VLOOKUP(K43,模板!A:B,2,FALSE)</f>
@@ -4103,186 +4422,189 @@
         <v>7</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:13">
+      <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" ref="E44:E59" si="3">IF(COUNTIF(H44,"*伤*")&gt;0,1,0)+IF(COUNTIF(H44,"*格挡*")&gt;0,-1,0)</f>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="F44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="2" t="str">
         <f>VLOOKUP(F44,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
-      </c>
-      <c r="H44" t="s">
+        <v>固定中收益</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I44" t="s">
-        <v>197</v>
-      </c>
-      <c r="J44" t="str">
+      <c r="I44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="2" t="str">
         <f>VLOOKUP(K44,模板!A:B,2,FALSE)</f>
         <v>伤害，格挡</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L44" t="s">
-        <v>198</v>
-      </c>
-      <c r="M44" t="s">
-        <v>199</v>
+      <c r="L44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="3"/>
+      <c r="E45" s="5">
+        <f t="shared" ref="E45:E60" si="3">IF(COUNTIF(H45,"*伤*")&gt;0,1,0)+IF(COUNTIF(H45,"*格挡*")&gt;0,-1,0)</f>
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(F45,模板!G:H,2,FALSE)</f>
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J45" t="str">
         <f>VLOOKUP(K45,模板!A:B,2,FALSE)</f>
-        <v>80100连击伤害，格挡</v>
+        <v>伤害，格挡</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="4" t="e">
-        <f>IF(COUNTIF(#REF!,"*伤*")&gt;0,1,0)+IF(COUNTIF(#REF!,"*格挡*")&gt;0,-1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" t="e">
+      <c r="E46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" t="str">
         <f>VLOOKUP(F46,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>229</v>
       </c>
       <c r="J46" t="str">
         <f>VLOOKUP(K46,模板!A:B,2,FALSE)</f>
-        <v>无模板</v>
+        <v>80100连击伤害，格挡</v>
       </c>
       <c r="K46" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" t="str">
+      <c r="E47" s="5" t="e">
+        <f>IF(COUNTIF(#REF!,"*伤*")&gt;0,1,0)+IF(COUNTIF(#REF!,"*格挡*")&gt;0,-1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G47" t="e">
         <f>VLOOKUP(F47,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
-      </c>
-      <c r="I47" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="J47" t="str">
         <f>VLOOKUP(K47,模板!A:B,2,FALSE)</f>
-        <v>大量伤害</v>
+        <v>无模板</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L47" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G48" t="str">
         <f>VLOOKUP(F48,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H48" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="J48" t="str">
         <f>VLOOKUP(K48,模板!A:B,2,FALSE)</f>
-        <v>溅射伤害</v>
+        <v>大量伤害</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L48" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -4294,42 +4616,42 @@
         <v>固定中收益</v>
       </c>
       <c r="H49" t="s">
-        <v>212</v>
+        <v>237</v>
+      </c>
+      <c r="I49" t="s">
+        <v>238</v>
       </c>
       <c r="J49" t="str">
         <f>VLOOKUP(K49,模板!A:B,2,FALSE)</f>
-        <v>伤害</v>
+        <v>溅射伤害</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M49" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G50" t="str">
         <f>VLOOKUP(F50,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H50" t="s">
-        <v>215</v>
-      </c>
-      <c r="I50" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J50" t="str">
         <f>VLOOKUP(K50,模板!A:B,2,FALSE)</f>
@@ -4339,17 +4661,17 @@
         <v>42</v>
       </c>
       <c r="L50" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -4361,10 +4683,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(K51,模板!A:B,2,FALSE)</f>
@@ -4374,32 +4696,32 @@
         <v>42</v>
       </c>
       <c r="L51" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="M51" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="4">
-        <f t="shared" ref="E52:E67" si="4">IF(COUNTIF(L52,"*伤*")&gt;0,1,0)+IF(COUNTIF(L52,"*格挡*")&gt;0,-1,0)</f>
-        <v>0</v>
+      <c r="E52" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(F52,模板!G:H,2,FALSE)</f>
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(K52,模板!A:B,2,FALSE)</f>
@@ -4409,139 +4731,142 @@
         <v>42</v>
       </c>
       <c r="L52" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M52" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="4">
-        <f t="shared" si="4"/>
+      <c r="E53" s="5">
+        <f t="shared" ref="E53:E68" si="4">IF(COUNTIF(L53,"*伤*")&gt;0,1,0)+IF(COUNTIF(L53,"*格挡*")&gt;0,-1,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" t="e">
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" t="str">
         <f>VLOOKUP(F53,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
+      </c>
+      <c r="H53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
       </c>
       <c r="J53" t="str">
         <f>VLOOKUP(K53,模板!A:B,2,FALSE)</f>
         <v>伤害</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>252</v>
+      </c>
+      <c r="M53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" t="str">
+      <c r="G54" t="e">
         <f>VLOOKUP(F54,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
-      </c>
-      <c r="H54" t="s">
-        <v>226</v>
+        <v>#N/A</v>
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP(K54,模板!A:B,2,FALSE)</f>
         <v>伤害</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
-        <v>227</v>
-      </c>
-      <c r="M54" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(F55,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H55" t="s">
-        <v>229</v>
-      </c>
-      <c r="I55" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J55" t="str">
         <f>VLOOKUP(K55,模板!A:B,2,FALSE)</f>
-        <v>格挡，格挡恢复</v>
+        <v>伤害</v>
       </c>
       <c r="K55" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L55" t="s">
-        <v>231</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>232</v>
+        <v>256</v>
+      </c>
+      <c r="M55" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G56" t="str">
         <f>VLOOKUP(F56,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>258</v>
+      </c>
+      <c r="I56" t="s">
+        <v>259</v>
       </c>
       <c r="J56" t="str">
         <f>VLOOKUP(K56,模板!A:B,2,FALSE)</f>
-        <v>格挡</v>
+        <v>格挡，格挡恢复</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L56" t="s">
-        <v>234</v>
-      </c>
-      <c r="M56" t="s">
-        <v>235</v>
+        <v>260</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4553,7 +4878,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H57" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="J57" t="str">
         <f>VLOOKUP(K57,模板!A:B,2,FALSE)</f>
@@ -4563,32 +4888,29 @@
         <v>59</v>
       </c>
       <c r="L57" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" t="str">
         <f>VLOOKUP(F58,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J58" t="str">
         <f>VLOOKUP(K58,模板!A:B,2,FALSE)</f>
@@ -4598,17 +4920,17 @@
         <v>59</v>
       </c>
       <c r="L58" t="s">
-        <v>240</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>266</v>
+      </c>
+      <c r="M58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:13">
       <c r="A59" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4620,10 +4942,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J59" t="str">
         <f>VLOOKUP(K59,模板!A:B,2,FALSE)</f>
@@ -4633,87 +4955,93 @@
         <v>59</v>
       </c>
       <c r="L59" t="s">
-        <v>244</v>
-      </c>
-      <c r="M59" t="s">
-        <v>245</v>
+        <v>269</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G60" t="str">
         <f>VLOOKUP(F60,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H60" t="s">
-        <v>246</v>
+        <v>271</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
       </c>
       <c r="J60" t="str">
         <f>VLOOKUP(K60,模板!A:B,2,FALSE)</f>
-        <v>格挡恢复，延时格挡恢复</v>
+        <v>格挡</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G61" t="e">
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="str">
         <f>VLOOKUP(F61,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>固定中收益</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J61" t="str">
         <f>VLOOKUP(K61,模板!A:B,2,FALSE)</f>
-        <v>格挡恢复</v>
+        <v>格挡恢复，延时格挡恢复</v>
       </c>
       <c r="K61" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="str">
+      <c r="G62" t="e">
         <f>VLOOKUP(F62,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J62" t="str">
         <f>VLOOKUP(K62,模板!A:B,2,FALSE)</f>
@@ -4723,17 +5051,14 @@
         <v>63</v>
       </c>
       <c r="L62" t="s">
-        <v>252</v>
-      </c>
-      <c r="M62" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4745,27 +5070,27 @@
         <v>固定中收益</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="J63" t="str">
         <f>VLOOKUP(K63,模板!A:B,2,FALSE)</f>
-        <v>格挡恢复+</v>
+        <v>格挡恢复</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" ht="27" spans="1:13">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4777,59 +5102,59 @@
         <v>固定中收益</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="J64" t="str">
         <f>VLOOKUP(K64,模板!A:B,2,FALSE)</f>
-        <v>格挡恢复</v>
+        <v>格挡恢复+</v>
       </c>
       <c r="K64" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L64" t="s">
-        <v>256</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>283</v>
+      </c>
+      <c r="M64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:13">
       <c r="A65" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G65" t="str">
         <f>VLOOKUP(F65,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
-      </c>
-      <c r="I65" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="J65" t="str">
         <f>VLOOKUP(K65,模板!A:B,2,FALSE)</f>
-        <v>无模板</v>
+        <v>格挡恢复</v>
       </c>
       <c r="K65" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L65" t="s">
-        <v>259</v>
+        <v>285</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4841,10 +5166,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="I66" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="J66" t="str">
         <f>VLOOKUP(K66,模板!A:B,2,FALSE)</f>
@@ -4854,23 +5179,29 @@
         <v>75</v>
       </c>
       <c r="L66" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G67" t="e">
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" t="str">
         <f>VLOOKUP(F67,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>287</v>
+      </c>
+      <c r="I67" t="s">
+        <v>289</v>
       </c>
       <c r="J67" t="str">
         <f>VLOOKUP(K67,模板!A:B,2,FALSE)</f>
@@ -4880,132 +5211,132 @@
         <v>75</v>
       </c>
       <c r="L67" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="str">
+      <c r="E68" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="e">
         <f>VLOOKUP(F68,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H68" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J68" t="str">
         <f>VLOOKUP(K68,模板!A:B,2,FALSE)</f>
-        <v>体力流失群伤</v>
+        <v>无模板</v>
       </c>
       <c r="K68" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L68" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="G69" t="e">
+      <c r="E69" s="5"/>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="str">
         <f>VLOOKUP(F69,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>固定中收益</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
-      </c>
-      <c r="J69" t="e">
+        <v>293</v>
+      </c>
+      <c r="J69" t="str">
         <f>VLOOKUP(K69,模板!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>体力流失群伤</v>
+      </c>
+      <c r="K69" t="s">
+        <v>36</v>
       </c>
       <c r="L69" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="5"/>
       <c r="G70" t="e">
         <f>VLOOKUP(F70,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
-      </c>
-      <c r="J70" t="str">
+        <v>278</v>
+      </c>
+      <c r="J70" t="e">
         <f>VLOOKUP(K70,模板!A:B,2,FALSE)</f>
-        <v>体力流失伤害</v>
-      </c>
-      <c r="K70" t="s">
-        <v>28</v>
+        <v>#N/A</v>
       </c>
       <c r="L70" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="5"/>
       <c r="G71" t="e">
         <f>VLOOKUP(F71,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H71" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="J71" t="str">
         <f>VLOOKUP(K71,模板!A:B,2,FALSE)</f>
-        <v>体力流失群伤</v>
+        <v>体力流失伤害</v>
       </c>
       <c r="K71" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L71" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="str">
+      <c r="E72" s="5"/>
+      <c r="G72" t="e">
         <f>VLOOKUP(F72,模板!G:H,2,FALSE)</f>
-        <v>固定中收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="J72" t="str">
         <f>VLOOKUP(K72,模板!A:B,2,FALSE)</f>
-        <v>无模板</v>
+        <v>体力流失群伤</v>
       </c>
       <c r="K72" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L72" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="5"/>
       <c r="F73" t="s">
         <v>81</v>
       </c>
@@ -5014,7 +5345,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J73" t="str">
         <f>VLOOKUP(K73,模板!A:B,2,FALSE)</f>
@@ -5024,14 +5355,14 @@
         <v>79</v>
       </c>
       <c r="L73" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="5"/>
       <c r="F74" t="s">
         <v>81</v>
       </c>
@@ -5040,7 +5371,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H74" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="J74" t="str">
         <f>VLOOKUP(K74,模板!A:B,2,FALSE)</f>
@@ -5050,14 +5381,14 @@
         <v>79</v>
       </c>
       <c r="L74" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="5"/>
       <c r="F75" t="s">
         <v>81</v>
       </c>
@@ -5066,7 +5397,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="J75" t="str">
         <f>VLOOKUP(K75,模板!A:B,2,FALSE)</f>
@@ -5076,14 +5407,14 @@
         <v>79</v>
       </c>
       <c r="L75" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="5"/>
       <c r="F76" t="s">
         <v>81</v>
       </c>
@@ -5092,7 +5423,7 @@
         <v>固定中收益</v>
       </c>
       <c r="H76" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="J76" t="str">
         <f>VLOOKUP(K76,模板!A:B,2,FALSE)</f>
@@ -5102,43 +5433,40 @@
         <v>79</v>
       </c>
       <c r="L76" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E77" s="5"/>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G77" t="str">
         <f>VLOOKUP(F77,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>固定中收益</v>
       </c>
       <c r="H77" t="s">
-        <v>169</v>
-      </c>
-      <c r="I77" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="J77" t="str">
         <f>VLOOKUP(K77,模板!A:B,2,FALSE)</f>
-        <v>伤害，回费，开局特效</v>
+        <v>无模板</v>
       </c>
       <c r="K77" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L77" t="s">
-        <v>280</v>
-      </c>
-      <c r="M77" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="5:13">
-      <c r="E78" s="4"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="5"/>
       <c r="F78" t="s">
         <v>78</v>
       </c>
@@ -5147,10 +5475,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="I78" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="J78" t="str">
         <f>VLOOKUP(K78,模板!A:B,2,FALSE)</f>
@@ -5160,17 +5488,14 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="M78" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13">
+      <c r="E79" s="5"/>
       <c r="F79" t="s">
         <v>78</v>
       </c>
@@ -5179,10 +5504,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H79" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I79" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="J79" t="str">
         <f>VLOOKUP(K79,模板!A:B,2,FALSE)</f>
@@ -5192,20 +5517,29 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>287</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="5:12">
-      <c r="E80" s="4"/>
-      <c r="G80" t="e">
+        <v>314</v>
+      </c>
+      <c r="M79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" t="str">
         <f>VLOOKUP(F80,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H80" t="s">
-        <v>249</v>
+        <v>316</v>
+      </c>
+      <c r="I80" t="s">
+        <v>317</v>
       </c>
       <c r="J80" t="str">
         <f>VLOOKUP(K80,模板!A:B,2,FALSE)</f>
@@ -5215,26 +5549,20 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" t="str">
+        <v>318</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12">
+      <c r="E81" s="5"/>
+      <c r="G81" t="e">
         <f>VLOOKUP(F81,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H81" t="s">
-        <v>169</v>
-      </c>
-      <c r="I81" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="J81" t="str">
         <f>VLOOKUP(K81,模板!A:B,2,FALSE)</f>
@@ -5244,14 +5572,14 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>291</v>
-      </c>
-      <c r="M81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="5:12">
-      <c r="E82" s="4"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="5"/>
       <c r="F82" t="s">
         <v>78</v>
       </c>
@@ -5260,7 +5588,10 @@
         <v>平时小收益，触发大收益</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>308</v>
+      </c>
+      <c r="I82" t="s">
+        <v>321</v>
       </c>
       <c r="J82" t="str">
         <f>VLOOKUP(K82,模板!A:B,2,FALSE)</f>
@@ -5270,52 +5601,49 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="G83" t="e">
+        <v>322</v>
+      </c>
+      <c r="M82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12">
+      <c r="E83" s="5"/>
+      <c r="F83" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" t="str">
         <f>VLOOKUP(F83,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H83" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="J83" t="str">
         <f>VLOOKUP(K83,模板!A:B,2,FALSE)</f>
-        <v>伤害，格挡</v>
+        <v>伤害，回费，开局特效</v>
       </c>
       <c r="K83" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>47</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84" t="str">
+      <c r="E84" s="5"/>
+      <c r="G84" t="e">
         <f>VLOOKUP(F84,模板!G:H,2,FALSE)</f>
-        <v>平时小收益，触发大收益</v>
+        <v>#N/A</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="I84" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="J84" t="str">
         <f>VLOOKUP(K84,模板!A:B,2,FALSE)</f>
@@ -5325,51 +5653,66 @@
         <v>7</v>
       </c>
       <c r="L84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" ht="15" spans="5:13">
-      <c r="E85" s="4"/>
-      <c r="G85" t="e">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" t="str">
         <f>VLOOKUP(F85,模板!G:H,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>平时小收益，触发大收益</v>
       </c>
       <c r="H85" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="I85" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="J85" t="str">
         <f>VLOOKUP(K85,模板!A:B,2,FALSE)</f>
-        <v>80100连击伤害，格挡</v>
+        <v>伤害，格挡</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L85" t="s">
-        <v>300</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="5:12">
-      <c r="E86" s="4"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="5:13">
+      <c r="E86" s="5"/>
       <c r="G86" t="e">
         <f>VLOOKUP(F86,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J86" t="e">
+      <c r="H86" t="s">
+        <v>329</v>
+      </c>
+      <c r="I86" t="s">
+        <v>330</v>
+      </c>
+      <c r="J86" t="str">
         <f>VLOOKUP(K86,模板!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>80100连击伤害，格挡</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>302</v>
+        <v>331</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="5:12">
-      <c r="E87" s="4"/>
+      <c r="E87" s="5"/>
       <c r="G87" t="e">
         <f>VLOOKUP(F87,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5379,11 +5722,11 @@
         <v>#N/A</v>
       </c>
       <c r="L87" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="5:12">
-      <c r="E88" s="4"/>
+      <c r="E88" s="5"/>
       <c r="G88" t="e">
         <f>VLOOKUP(F88,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5393,11 +5736,11 @@
         <v>#N/A</v>
       </c>
       <c r="L88" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="5:12">
-      <c r="E89" s="4"/>
+      <c r="E89" s="5"/>
       <c r="G89" t="e">
         <f>VLOOKUP(F89,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5407,11 +5750,11 @@
         <v>#N/A</v>
       </c>
       <c r="L89" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="5:12">
-      <c r="E90" s="4"/>
+      <c r="E90" s="5"/>
       <c r="G90" t="e">
         <f>VLOOKUP(F90,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5421,11 +5764,11 @@
         <v>#N/A</v>
       </c>
       <c r="L90" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="5:12">
-      <c r="E91" s="4"/>
+      <c r="E91" s="5"/>
       <c r="G91" t="e">
         <f>VLOOKUP(F91,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5435,11 +5778,11 @@
         <v>#N/A</v>
       </c>
       <c r="L91" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="5:12">
-      <c r="E92" s="4"/>
+      <c r="E92" s="5"/>
       <c r="G92" t="e">
         <f>VLOOKUP(F92,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5449,11 +5792,11 @@
         <v>#N/A</v>
       </c>
       <c r="L92" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="5:12">
-      <c r="E93" s="4"/>
+      <c r="E93" s="5"/>
       <c r="G93" t="e">
         <f>VLOOKUP(F93,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5463,11 +5806,11 @@
         <v>#N/A</v>
       </c>
       <c r="L93" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="5:12">
-      <c r="E94" s="4"/>
+      <c r="E94" s="5"/>
       <c r="G94" t="e">
         <f>VLOOKUP(F94,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5477,11 +5820,11 @@
         <v>#N/A</v>
       </c>
       <c r="L94" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="5:12">
-      <c r="E95" s="4"/>
+      <c r="E95" s="5"/>
       <c r="G95" t="e">
         <f>VLOOKUP(F95,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5491,11 +5834,11 @@
         <v>#N/A</v>
       </c>
       <c r="L95" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="5:12">
-      <c r="E96" s="4"/>
+      <c r="E96" s="5"/>
       <c r="G96" t="e">
         <f>VLOOKUP(F96,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5505,11 +5848,11 @@
         <v>#N/A</v>
       </c>
       <c r="L96" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="5:12">
-      <c r="E97" s="4"/>
+      <c r="E97" s="5"/>
       <c r="G97" t="e">
         <f>VLOOKUP(F97,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5519,11 +5862,11 @@
         <v>#N/A</v>
       </c>
       <c r="L97" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="5:12">
-      <c r="E98" s="4"/>
+      <c r="E98" s="5"/>
       <c r="G98" t="e">
         <f>VLOOKUP(F98,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5533,45 +5876,42 @@
         <v>#N/A</v>
       </c>
       <c r="L98" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="5:12">
-      <c r="E99" s="4"/>
+      <c r="E99" s="5"/>
       <c r="G99" t="e">
         <f>VLOOKUP(F99,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" t="e">
         <f>VLOOKUP(K99,模板!A:B,2,FALSE)</f>
-        <v>大量伤害</v>
-      </c>
-      <c r="K99" t="s">
-        <v>54</v>
+        <v>#N/A</v>
       </c>
       <c r="L99" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="5:12">
-      <c r="E100" s="4"/>
+      <c r="E100" s="5"/>
       <c r="G100" t="e">
         <f>VLOOKUP(F100,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J100" t="str">
         <f>VLOOKUP(K100,模板!A:B,2,FALSE)</f>
-        <v>伤害</v>
+        <v>大量伤害</v>
       </c>
       <c r="K100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L100" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="5:12">
-      <c r="E101" s="4"/>
+      <c r="E101" s="5"/>
       <c r="G101" t="e">
         <f>VLOOKUP(F101,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5581,28 +5921,31 @@
         <v>伤害</v>
       </c>
       <c r="K101" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L101" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="5:12">
-      <c r="E102" s="4"/>
+      <c r="E102" s="5"/>
       <c r="G102" t="e">
         <f>VLOOKUP(F102,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J102" t="e">
+      <c r="J102" t="str">
         <f>VLOOKUP(K102,模板!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>伤害</v>
+      </c>
+      <c r="K102" t="s">
+        <v>42</v>
       </c>
       <c r="L102" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="5:12">
-      <c r="E103" s="4"/>
+      <c r="E103" s="5"/>
       <c r="G103" t="e">
         <f>VLOOKUP(F103,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5612,42 +5955,42 @@
         <v>#N/A</v>
       </c>
       <c r="L103" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="5:12">
-      <c r="E104" s="4"/>
+      <c r="E104" s="5"/>
       <c r="G104" t="e">
         <f>VLOOKUP(F104,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J104" t="str">
+      <c r="J104" t="e">
         <f>VLOOKUP(K104,模板!A:B,2,FALSE)</f>
-        <v>伤害</v>
-      </c>
-      <c r="K104" t="s">
-        <v>56</v>
+        <v>#N/A</v>
       </c>
       <c r="L104" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="5:12">
-      <c r="E105" s="4"/>
+      <c r="E105" s="5"/>
       <c r="G105" t="e">
         <f>VLOOKUP(F105,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J105" t="e">
+      <c r="J105" t="str">
         <f>VLOOKUP(K105,模板!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>伤害</v>
+      </c>
+      <c r="K105" t="s">
+        <v>56</v>
       </c>
       <c r="L105" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="5:12">
-      <c r="E106" s="4"/>
+      <c r="E106" s="5"/>
       <c r="G106" t="e">
         <f>VLOOKUP(F106,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5657,11 +6000,11 @@
         <v>#N/A</v>
       </c>
       <c r="L106" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="5:12">
-      <c r="E107" s="4"/>
+      <c r="E107" s="5"/>
       <c r="G107" t="e">
         <f>VLOOKUP(F107,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5671,11 +6014,11 @@
         <v>#N/A</v>
       </c>
       <c r="L107" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="5:12">
-      <c r="E108" s="4"/>
+      <c r="E108" s="5"/>
       <c r="G108" t="e">
         <f>VLOOKUP(F108,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5685,10 +6028,11 @@
         <v>#N/A</v>
       </c>
       <c r="L108" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109" spans="7:12">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12">
+      <c r="E109" s="5"/>
       <c r="G109" t="e">
         <f>VLOOKUP(F109,模板!G:H,2,FALSE)</f>
         <v>#N/A</v>
@@ -5698,7 +6042,7 @@
         <v>#N/A</v>
       </c>
       <c r="L109" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="7:12">
@@ -5711,7 +6055,7 @@
         <v>#N/A</v>
       </c>
       <c r="L110" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="7:12">
@@ -5724,7 +6068,7 @@
         <v>#N/A</v>
       </c>
       <c r="L111" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="7:12">
@@ -5737,7 +6081,7 @@
         <v>#N/A</v>
       </c>
       <c r="L112" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="7:12">
@@ -5750,7 +6094,7 @@
         <v>#N/A</v>
       </c>
       <c r="L113" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="7:12">
@@ -5763,7 +6107,7 @@
         <v>#N/A</v>
       </c>
       <c r="L114" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="7:12">
@@ -5776,7 +6120,7 @@
         <v>#N/A</v>
       </c>
       <c r="L115" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="7:12">
@@ -5789,7 +6133,7 @@
         <v>#N/A</v>
       </c>
       <c r="L116" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="7:12">
@@ -5802,7 +6146,7 @@
         <v>#N/A</v>
       </c>
       <c r="L117" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="7:12">
@@ -5815,7 +6159,7 @@
         <v>#N/A</v>
       </c>
       <c r="L118" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="7:12">
@@ -5828,7 +6172,7 @@
         <v>#N/A</v>
       </c>
       <c r="L119" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="7:12">
@@ -5841,7 +6185,7 @@
         <v>#N/A</v>
       </c>
       <c r="L120" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="7:12">
@@ -5854,7 +6198,7 @@
         <v>#N/A</v>
       </c>
       <c r="L121" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="7:12">
@@ -5867,7 +6211,7 @@
         <v>#N/A</v>
       </c>
       <c r="L122" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="7:12">
@@ -5880,7 +6224,7 @@
         <v>#N/A</v>
       </c>
       <c r="L123" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="7:12">
@@ -5893,7 +6237,7 @@
         <v>#N/A</v>
       </c>
       <c r="L124" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="7:12">
@@ -5906,7 +6250,7 @@
         <v>#N/A</v>
       </c>
       <c r="L125" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="7:12">
@@ -5919,7 +6263,7 @@
         <v>#N/A</v>
       </c>
       <c r="L126" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="7:12">
@@ -5932,7 +6276,7 @@
         <v>#N/A</v>
       </c>
       <c r="L127" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="7:12">
@@ -5945,7 +6289,7 @@
         <v>#N/A</v>
       </c>
       <c r="L128" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="7:12">
@@ -5958,7 +6302,7 @@
         <v>#N/A</v>
       </c>
       <c r="L129" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="7:12">
@@ -5971,7 +6315,7 @@
         <v>#N/A</v>
       </c>
       <c r="L130" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="7:12">
@@ -5984,7 +6328,7 @@
         <v>#N/A</v>
       </c>
       <c r="L131" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="7:12">
@@ -5997,7 +6341,7 @@
         <v>#N/A</v>
       </c>
       <c r="L132" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="7:12">
@@ -6010,7 +6354,7 @@
         <v>#N/A</v>
       </c>
       <c r="L133" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="7:12">
@@ -6023,7 +6367,7 @@
         <v>#N/A</v>
       </c>
       <c r="L134" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="7:12">
@@ -6036,7 +6380,7 @@
         <v>#N/A</v>
       </c>
       <c r="L135" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="7:12">
@@ -6049,7 +6393,7 @@
         <v>#N/A</v>
       </c>
       <c r="L136" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="7:12">
@@ -6062,7 +6406,7 @@
         <v>#N/A</v>
       </c>
       <c r="L137" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="7:12">
@@ -6075,7 +6419,7 @@
         <v>#N/A</v>
       </c>
       <c r="L138" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="7:12">
@@ -6088,7 +6432,7 @@
         <v>#N/A</v>
       </c>
       <c r="L139" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="7:12">
@@ -6101,7 +6445,7 @@
         <v>#N/A</v>
       </c>
       <c r="L140" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="7:12">
@@ -6114,7 +6458,7 @@
         <v>#N/A</v>
       </c>
       <c r="L141" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" spans="7:12">
@@ -6127,7 +6471,7 @@
         <v>#N/A</v>
       </c>
       <c r="L142" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="7:12">
@@ -6140,7 +6484,7 @@
         <v>#N/A</v>
       </c>
       <c r="L143" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
     </row>
     <row r="144" spans="7:12">
@@ -6153,7 +6497,7 @@
         <v>#N/A</v>
       </c>
       <c r="L144" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="7:12">
@@ -6166,7 +6510,7 @@
         <v>#N/A</v>
       </c>
       <c r="L145" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="7:12">
@@ -6179,7 +6523,7 @@
         <v>#N/A</v>
       </c>
       <c r="L146" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="7:12">
@@ -6192,7 +6536,7 @@
         <v>#N/A</v>
       </c>
       <c r="L147" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148" spans="7:12">
@@ -6205,7 +6549,7 @@
         <v>#N/A</v>
       </c>
       <c r="L148" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="7:12">
@@ -6218,7 +6562,7 @@
         <v>#N/A</v>
       </c>
       <c r="L149" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
     </row>
     <row r="150" spans="7:12">
@@ -6231,7 +6575,20 @@
         <v>#N/A</v>
       </c>
       <c r="L150" t="s">
-        <v>366</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="151" spans="7:12">
+      <c r="G151" t="e">
+        <f>VLOOKUP(F151,模板!G:H,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J151" t="e">
+        <f>VLOOKUP(K151,模板!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L151" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6245,8 +6602,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6261,283 +6618,283 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="C19" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="E20" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C26" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C30" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C31" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="C34" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
